--- a/Base/Teams/Browns/Target Depth Data.xlsx
+++ b/Base/Teams/Browns/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Browns/Target Depth Data.xlsx
+++ b/Base/Teams/Browns/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="C2">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>67</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Browns/Target Depth Data.xlsx
+++ b/Base/Teams/Browns/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>11</v>

--- a/Base/Teams/Browns/Target Depth Data.xlsx
+++ b/Base/Teams/Browns/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D3">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>
